--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
@@ -772,22 +772,22 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -796,28 +796,28 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M8" t="n">
-        <v>214</v>
+        <v>224.44</v>
       </c>
       <c r="N8" t="n">
-        <v>242.028</v>
+        <v>260.056</v>
       </c>
       <c r="O8" t="n">
-        <v>277.028</v>
+        <v>302.028</v>
       </c>
       <c r="P8" t="n">
-        <v>308.052</v>
+        <v>337.028</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.134</v>
+        <v>334.193</v>
       </c>
       <c r="R8" t="n">
-        <v>349.946</v>
+        <v>359.744</v>
       </c>
       <c r="S8" t="n">
-        <v>402.372</v>
+        <v>401.354</v>
       </c>
       <c r="T8" t="n">
         <v>108</v>
@@ -834,20 +834,20 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>47</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
-        <v>19</v>
-      </c>
-      <c r="F9" t="n">
-        <v>36</v>
-      </c>
-      <c r="G9" t="n">
-        <v>47</v>
-      </c>
-      <c r="H9" t="n">
-        <v>45</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -855,22 +855,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>34</v>
+        <v>54.616</v>
       </c>
       <c r="L9" t="n">
-        <v>56.042</v>
+        <v>68.083</v>
       </c>
       <c r="M9" t="n">
-        <v>85</v>
+        <v>110.763</v>
       </c>
       <c r="N9" t="n">
-        <v>102.211</v>
+        <v>112.824</v>
       </c>
       <c r="O9" t="n">
-        <v>269</v>
+        <v>277.062</v>
       </c>
       <c r="P9" t="n">
-        <v>286.071</v>
+        <v>293.142</v>
       </c>
       <c r="Q9" t="n">
         <v>329.612</v>
@@ -922,11 +922,11 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
+        <v>42</v>
+      </c>
+      <c r="E11" t="n">
         <v>39</v>
       </c>
-      <c r="E11" t="n">
-        <v>42</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25.495</v>
+        <v>64.03100000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>44.715</v>
+        <v>60.455</v>
       </c>
       <c r="J11" t="n">
-        <v>99.759</v>
+        <v>133.235</v>
       </c>
       <c r="K11" t="n">
-        <v>143.73</v>
+        <v>141.206</v>
       </c>
       <c r="L11" t="n">
         <v>56</v>
@@ -1726,7 +1726,7 @@
         <v>2704.913</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -1828,11 +1828,11 @@
         <v>55</v>
       </c>
       <c r="D4" t="n">
+        <v>68</v>
+      </c>
+      <c r="E4" t="n">
         <v>93</v>
       </c>
-      <c r="E4" t="n">
-        <v>68</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144</v>
+        <v>154.142</v>
       </c>
       <c r="I4" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J4" t="n">
-        <v>206.016</v>
+        <v>214.944</v>
       </c>
       <c r="K4" t="n">
-        <v>237.111</v>
+        <v>223.567</v>
       </c>
       <c r="L4" t="n">
         <v>40</v>
@@ -2054,13 +2054,13 @@
         <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2069,19 +2069,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>66</v>
+        <v>81.81100000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>92.401</v>
+        <v>108.802</v>
       </c>
       <c r="K9" t="n">
-        <v>124</v>
+        <v>152.454</v>
       </c>
       <c r="L9" t="n">
-        <v>139</v>
+        <v>156.211</v>
       </c>
       <c r="M9" t="n">
-        <v>193.204</v>
+        <v>203.213</v>
       </c>
       <c r="N9" t="n">
         <v>59</v>
@@ -2842,11 +2842,11 @@
         <v>33</v>
       </c>
       <c r="D28" t="n">
+        <v>28</v>
+      </c>
+      <c r="E28" t="n">
         <v>30</v>
       </c>
-      <c r="E28" t="n">
-        <v>28</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
@@ -2854,16 +2854,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>51.478</v>
+        <v>102.956</v>
       </c>
       <c r="I28" t="n">
-        <v>74</v>
+        <v>78.68300000000001</v>
       </c>
       <c r="J28" t="n">
-        <v>88</v>
+        <v>88.08</v>
       </c>
       <c r="K28" t="n">
-        <v>153.714</v>
+        <v>146.08</v>
       </c>
       <c r="L28" t="n">
         <v>30</v>
@@ -2896,7 +2896,7 @@
         <v>1880.468</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -3920,22 +3920,22 @@
         <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
         <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3944,28 +3944,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>376</v>
+        <v>406.806</v>
       </c>
       <c r="M3" t="n">
-        <v>392.403</v>
+        <v>398.806</v>
       </c>
       <c r="N3" t="n">
-        <v>557</v>
+        <v>582.602</v>
       </c>
       <c r="O3" t="n">
-        <v>577.4400000000001</v>
+        <v>604.881</v>
       </c>
       <c r="P3" t="n">
-        <v>651.072</v>
+        <v>717.365</v>
       </c>
       <c r="Q3" t="n">
-        <v>712.317</v>
+        <v>773.3920000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>733.087</v>
+        <v>753.688</v>
       </c>
       <c r="S3" t="n">
-        <v>788.131</v>
+        <v>797.962</v>
       </c>
       <c r="T3" t="n">
         <v>110</v>
@@ -4014,26 +4014,26 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
         <v>26</v>
       </c>
-      <c r="E5" t="n">
-        <v>50</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22</v>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9</v>
-      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -4041,31 +4041,31 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>223</v>
+        <v>255.388</v>
       </c>
       <c r="N5" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="O5" t="n">
-        <v>371</v>
+        <v>376.385</v>
       </c>
       <c r="P5" t="n">
-        <v>417.056</v>
+        <v>453.111</v>
       </c>
       <c r="Q5" t="n">
-        <v>537</v>
+        <v>443.606</v>
       </c>
       <c r="R5" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="S5" t="n">
-        <v>597.802</v>
+        <v>619.111</v>
       </c>
       <c r="T5" t="n">
-        <v>631.3390000000001</v>
+        <v>640.13</v>
       </c>
       <c r="U5" t="n">
-        <v>699.8630000000001</v>
+        <v>685.116</v>
       </c>
       <c r="V5" t="n">
         <v>200</v>
@@ -4132,20 +4132,20 @@
         <v>14</v>
       </c>
       <c r="D7" t="n">
+        <v>47</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19</v>
+      </c>
+      <c r="H7" t="n">
         <v>18</v>
       </c>
-      <c r="E7" t="n">
-        <v>19</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>47</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
@@ -4153,25 +4153,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>35.355</v>
+        <v>70.711</v>
       </c>
       <c r="L7" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M7" t="n">
-        <v>174</v>
+        <v>260.385</v>
       </c>
       <c r="N7" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="O7" t="n">
-        <v>316.614</v>
+        <v>377</v>
       </c>
       <c r="P7" t="n">
-        <v>335</v>
+        <v>347.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>390.177</v>
+        <v>397.563</v>
       </c>
       <c r="R7" t="n">
         <v>120</v>
@@ -6006,11 +6006,11 @@
         <v>14</v>
       </c>
       <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
         <v>23</v>
       </c>
-      <c r="E7" t="n">
-        <v>15</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -6018,16 +6018,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>175</v>
+        <v>64.03100000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>200.811</v>
+        <v>190.811</v>
       </c>
       <c r="J7" t="n">
-        <v>251.123</v>
+        <v>235</v>
       </c>
       <c r="K7" t="n">
-        <v>297.178</v>
+        <v>256.056</v>
       </c>
       <c r="L7" t="n">
         <v>57</v>
@@ -6670,20 +6670,20 @@
         <v>53</v>
       </c>
       <c r="D2" t="n">
+        <v>58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2" t="n">
+        <v>89</v>
+      </c>
+      <c r="H2" t="n">
         <v>70</v>
       </c>
-      <c r="E2" t="n">
-        <v>89</v>
-      </c>
-      <c r="F2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G2" t="n">
-        <v>93</v>
-      </c>
-      <c r="H2" t="n">
-        <v>58</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -6691,25 +6691,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>414</v>
+        <v>418.472</v>
       </c>
       <c r="L2" t="n">
-        <v>849</v>
+        <v>854.099</v>
       </c>
       <c r="M2" t="n">
-        <v>872.454</v>
+        <v>898.395</v>
       </c>
       <c r="N2" t="n">
-        <v>896.0549999999999</v>
+        <v>900.698</v>
       </c>
       <c r="O2" t="n">
-        <v>912.0549999999999</v>
+        <v>931.901</v>
       </c>
       <c r="P2" t="n">
-        <v>964.54</v>
+        <v>975.712</v>
       </c>
       <c r="Q2" t="n">
-        <v>995.635</v>
+        <v>983.101</v>
       </c>
       <c r="R2" t="n">
         <v>91</v>
@@ -6726,22 +6726,22 @@
         <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
         <v>54</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I3" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6750,28 +6750,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M3" t="n">
-        <v>120.708</v>
+        <v>127.416</v>
       </c>
       <c r="N3" t="n">
-        <v>588</v>
+        <v>596.062</v>
       </c>
       <c r="O3" t="n">
-        <v>641</v>
+        <v>653.042</v>
       </c>
       <c r="P3" t="n">
-        <v>839</v>
+        <v>831.5599999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>855.708</v>
+        <v>845.708</v>
       </c>
       <c r="R3" t="n">
-        <v>891.65</v>
+        <v>887.471</v>
       </c>
       <c r="S3" t="n">
-        <v>935.191</v>
+        <v>911.776</v>
       </c>
       <c r="T3" t="n">
         <v>93</v>
@@ -6788,32 +6788,32 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
+        <v>94</v>
+      </c>
+      <c r="E4" t="n">
+        <v>96</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37</v>
+      </c>
+      <c r="H4" t="n">
+        <v>91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17</v>
+      </c>
+      <c r="L4" t="n">
         <v>48</v>
       </c>
-      <c r="E4" t="n">
-        <v>17</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>96</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>91</v>
-      </c>
-      <c r="K4" t="n">
-        <v>97</v>
-      </c>
-      <c r="L4" t="n">
-        <v>94</v>
-      </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
@@ -6821,37 +6821,37 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>415</v>
+        <v>426.18</v>
       </c>
       <c r="P4" t="n">
-        <v>436</v>
+        <v>439.162</v>
       </c>
       <c r="Q4" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="R4" t="n">
-        <v>623.708</v>
+        <v>630.4160000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>638.807</v>
+        <v>643.9059999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>739</v>
+        <v>744.099</v>
       </c>
       <c r="U4" t="n">
-        <v>763.866</v>
+        <v>781.311</v>
       </c>
       <c r="V4" t="n">
-        <v>786.515</v>
+        <v>806.778</v>
       </c>
       <c r="W4" t="n">
-        <v>812.327</v>
+        <v>826.265</v>
       </c>
       <c r="X4" t="n">
-        <v>854.2329999999999</v>
+        <v>870.4349999999999</v>
       </c>
       <c r="Y4" t="n">
-        <v>892.0359999999999</v>
+        <v>884.828</v>
       </c>
       <c r="Z4" t="n">
         <v>126</v>
@@ -7288,20 +7288,20 @@
         <v>21</v>
       </c>
       <c r="D11" t="n">
+        <v>75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" t="n">
+        <v>61</v>
+      </c>
+      <c r="H11" t="n">
         <v>38</v>
       </c>
-      <c r="E11" t="n">
-        <v>61</v>
-      </c>
-      <c r="F11" t="n">
-        <v>67</v>
-      </c>
-      <c r="G11" t="n">
-        <v>23</v>
-      </c>
-      <c r="H11" t="n">
-        <v>75</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -7309,25 +7309,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>214</v>
+        <v>232.028</v>
       </c>
       <c r="L11" t="n">
-        <v>236</v>
+        <v>245.849</v>
       </c>
       <c r="M11" t="n">
-        <v>254.485</v>
+        <v>312.974</v>
       </c>
       <c r="N11" t="n">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="O11" t="n">
-        <v>362.189</v>
+        <v>420.021</v>
       </c>
       <c r="P11" t="n">
-        <v>392.438</v>
+        <v>423.508</v>
       </c>
       <c r="Q11" t="n">
-        <v>444.864</v>
+        <v>455.686</v>
       </c>
       <c r="R11" t="n">
         <v>112</v>
@@ -7344,29 +7344,29 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
+        <v>83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>45</v>
+      </c>
+      <c r="F12" t="n">
+        <v>82</v>
+      </c>
+      <c r="G12" t="n">
+        <v>47</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36</v>
+      </c>
+      <c r="I12" t="n">
+        <v>64</v>
+      </c>
+      <c r="J12" t="n">
+        <v>71</v>
+      </c>
+      <c r="K12" t="n">
         <v>30</v>
       </c>
-      <c r="E12" t="n">
-        <v>71</v>
-      </c>
-      <c r="F12" t="n">
-        <v>36</v>
-      </c>
-      <c r="G12" t="n">
-        <v>83</v>
-      </c>
-      <c r="H12" t="n">
-        <v>64</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>82</v>
-      </c>
-      <c r="K12" t="n">
-        <v>47</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
@@ -7374,34 +7374,34 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>34</v>
+        <v>54.616</v>
       </c>
       <c r="O12" t="n">
-        <v>96</v>
+        <v>103.071</v>
       </c>
       <c r="P12" t="n">
-        <v>114.062</v>
+        <v>122.125</v>
       </c>
       <c r="Q12" t="n">
-        <v>162</v>
+        <v>174.728</v>
       </c>
       <c r="R12" t="n">
-        <v>183.402</v>
+        <v>194.804</v>
       </c>
       <c r="S12" t="n">
-        <v>200.613</v>
+        <v>207.824</v>
       </c>
       <c r="T12" t="n">
-        <v>232.014</v>
+        <v>253.415</v>
       </c>
       <c r="U12" t="n">
-        <v>272.246</v>
+        <v>327.921</v>
       </c>
       <c r="V12" t="n">
-        <v>301.035</v>
+        <v>332.544</v>
       </c>
       <c r="W12" t="n">
-        <v>350.696</v>
+        <v>349.251</v>
       </c>
       <c r="X12" t="n">
         <v>146</v>
@@ -7418,11 +7418,11 @@
         <v>98</v>
       </c>
       <c r="D13" t="n">
+        <v>44</v>
+      </c>
+      <c r="E13" t="n">
         <v>16</v>
       </c>
-      <c r="E13" t="n">
-        <v>44</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -7430,16 +7430,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>183</v>
+        <v>204.26</v>
       </c>
       <c r="I13" t="n">
-        <v>272</v>
+        <v>243.63</v>
       </c>
       <c r="J13" t="n">
-        <v>288.083</v>
+        <v>278.083</v>
       </c>
       <c r="K13" t="n">
-        <v>329.973</v>
+        <v>311.155</v>
       </c>
       <c r="L13" t="n">
         <v>47</v>
@@ -7456,13 +7456,13 @@
         <v>72</v>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
         <v>39</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7471,19 +7471,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>53.472</v>
       </c>
       <c r="J14" t="n">
-        <v>54.601</v>
+        <v>195.248</v>
       </c>
       <c r="K14" t="n">
-        <v>190</v>
+        <v>246.612</v>
       </c>
       <c r="L14" t="n">
-        <v>250.249</v>
+        <v>286.337</v>
       </c>
       <c r="M14" t="n">
-        <v>290.663</v>
+        <v>295.904</v>
       </c>
       <c r="N14" t="n">
         <v>73</v>
@@ -7886,7 +7886,7 @@
         <v>2458.674</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -8222,20 +8222,20 @@
         <v>92</v>
       </c>
       <c r="D7" t="n">
+        <v>94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>97</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" t="n">
+        <v>56</v>
+      </c>
+      <c r="H7" t="n">
         <v>32</v>
       </c>
-      <c r="E7" t="n">
-        <v>56</v>
-      </c>
-      <c r="F7" t="n">
-        <v>97</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
-        <v>94</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
@@ -8243,25 +8243,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.765</v>
+        <v>29.53</v>
       </c>
       <c r="L7" t="n">
-        <v>392</v>
+        <v>398.403</v>
       </c>
       <c r="M7" t="n">
-        <v>557</v>
+        <v>607.902</v>
       </c>
       <c r="N7" t="n">
-        <v>588.5410000000001</v>
+        <v>633.236</v>
       </c>
       <c r="O7" t="n">
-        <v>636.659</v>
+        <v>648.2</v>
       </c>
       <c r="P7" t="n">
-        <v>730.522</v>
+        <v>711.332</v>
       </c>
       <c r="Q7" t="n">
-        <v>791.6</v>
+        <v>735.074</v>
       </c>
       <c r="R7" t="n">
         <v>111</v>
@@ -8278,26 +8278,26 @@
         <v>88</v>
       </c>
       <c r="D8" t="n">
+        <v>78</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>79</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>46</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" t="n">
-        <v>78</v>
-      </c>
-      <c r="H8" t="n">
-        <v>79</v>
-      </c>
-      <c r="I8" t="n">
-        <v>46</v>
-      </c>
-      <c r="J8" t="n">
-        <v>73</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -8305,31 +8305,31 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>260</v>
+        <v>277.889</v>
       </c>
       <c r="N8" t="n">
-        <v>365</v>
+        <v>381.125</v>
       </c>
       <c r="O8" t="n">
-        <v>382.211</v>
+        <v>389.422</v>
       </c>
       <c r="P8" t="n">
-        <v>401.155</v>
+        <v>410.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>425.048</v>
+        <v>494.345</v>
       </c>
       <c r="R8" t="n">
-        <v>489</v>
+        <v>495.403</v>
       </c>
       <c r="S8" t="n">
-        <v>505.403</v>
+        <v>509</v>
       </c>
       <c r="T8" t="n">
-        <v>561.976</v>
+        <v>585.8049999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>603.598</v>
+        <v>591.525</v>
       </c>
       <c r="V8" t="n">
         <v>151</v>
@@ -8346,32 +8346,32 @@
         <v>83</v>
       </c>
       <c r="D9" t="n">
+        <v>64</v>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>51</v>
+      </c>
+      <c r="H9" t="n">
+        <v>49</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26</v>
+      </c>
+      <c r="K9" t="n">
+        <v>34</v>
+      </c>
+      <c r="L9" t="n">
         <v>50</v>
       </c>
-      <c r="E9" t="n">
-        <v>34</v>
-      </c>
-      <c r="F9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>84</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26</v>
-      </c>
-      <c r="I9" t="n">
-        <v>51</v>
-      </c>
-      <c r="J9" t="n">
-        <v>49</v>
-      </c>
-      <c r="K9" t="n">
-        <v>85</v>
-      </c>
-      <c r="L9" t="n">
-        <v>64</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
@@ -8379,37 +8379,37 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>105</v>
+        <v>124.235</v>
       </c>
       <c r="P9" t="n">
-        <v>191</v>
+        <v>199.062</v>
       </c>
       <c r="Q9" t="n">
-        <v>395</v>
+        <v>407.042</v>
       </c>
       <c r="R9" t="n">
-        <v>413.485</v>
+        <v>421.971</v>
       </c>
       <c r="S9" t="n">
-        <v>432.029</v>
+        <v>440.573</v>
       </c>
       <c r="T9" t="n">
-        <v>457.294</v>
+        <v>472.558</v>
       </c>
       <c r="U9" t="n">
-        <v>470.899</v>
+        <v>474.505</v>
       </c>
       <c r="V9" t="n">
-        <v>518.635</v>
+        <v>594.917</v>
       </c>
       <c r="W9" t="n">
-        <v>541.635</v>
+        <v>570.269</v>
       </c>
       <c r="X9" t="n">
-        <v>562.8150000000001</v>
+        <v>595.088</v>
       </c>
       <c r="Y9" t="n">
-        <v>631.3390000000001</v>
+        <v>627.429</v>
       </c>
       <c r="Z9" t="n">
         <v>210</v>
@@ -8538,22 +8538,22 @@
         <v>72</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n">
         <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8562,28 +8562,28 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>60</v>
+        <v>87.459</v>
       </c>
       <c r="M12" t="n">
-        <v>85.297</v>
+        <v>100.594</v>
       </c>
       <c r="N12" t="n">
-        <v>100.297</v>
+        <v>105.297</v>
       </c>
       <c r="O12" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P12" t="n">
-        <v>260.734</v>
+        <v>294.469</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.84</v>
+        <v>353.414</v>
       </c>
       <c r="R12" t="n">
-        <v>323.274</v>
+        <v>340.942</v>
       </c>
       <c r="S12" t="n">
-        <v>374.505</v>
+        <v>373.897</v>
       </c>
       <c r="T12" t="n">
         <v>108</v>
@@ -8718,17 +8718,17 @@
         <v>45</v>
       </c>
       <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27</v>
+      </c>
+      <c r="G15" t="n">
         <v>31</v>
       </c>
-      <c r="E15" t="n">
-        <v>27</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>36</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -8736,22 +8736,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>37.736</v>
+        <v>75.47199999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L15" t="n">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="M15" t="n">
-        <v>193.036</v>
+        <v>254.619</v>
       </c>
       <c r="N15" t="n">
-        <v>210.036</v>
+        <v>220.31</v>
       </c>
       <c r="O15" t="n">
-        <v>277.045</v>
+        <v>273.599</v>
       </c>
       <c r="P15" t="n">
         <v>110</v>
@@ -9070,13 +9070,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -9085,19 +9085,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>303</v>
+        <v>323.616</v>
       </c>
       <c r="J5" t="n">
-        <v>1253</v>
+        <v>1271.028</v>
       </c>
       <c r="K5" t="n">
-        <v>2292</v>
+        <v>2343.696</v>
       </c>
       <c r="L5" t="n">
-        <v>2425.738</v>
+        <v>2488.476</v>
       </c>
       <c r="M5" t="n">
-        <v>2549.04</v>
+        <v>2557.541</v>
       </c>
       <c r="N5" t="n">
         <v>50</v>
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -11258,17 +11258,17 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
         <v>24</v>
       </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -11276,22 +11276,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>64</v>
+        <v>96.38800000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L4" t="n">
-        <v>94.38500000000001</v>
+        <v>99.77</v>
       </c>
       <c r="M4" t="n">
-        <v>148</v>
+        <v>193.051</v>
       </c>
       <c r="N4" t="n">
-        <v>168.44</v>
+        <v>184.881</v>
       </c>
       <c r="O4" t="n">
-        <v>223.717</v>
+        <v>219.497</v>
       </c>
       <c r="P4" t="n">
         <v>110</v>
@@ -11642,20 +11642,20 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="E4" t="n">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -11663,25 +11663,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>223</v>
+        <v>255.388</v>
       </c>
       <c r="L4" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M4" t="n">
-        <v>371</v>
+        <v>376.385</v>
       </c>
       <c r="N4" t="n">
-        <v>417.056</v>
+        <v>471.686</v>
       </c>
       <c r="O4" t="n">
-        <v>437.826</v>
+        <v>457.884</v>
       </c>
       <c r="P4" t="n">
-        <v>530.796</v>
+        <v>601.668</v>
       </c>
       <c r="Q4" t="n">
-        <v>580.153</v>
+        <v>578.748</v>
       </c>
       <c r="R4" t="n">
         <v>150</v>
@@ -11698,17 +11698,17 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n">
         <v>19</v>
       </c>
-      <c r="E5" t="n">
-        <v>21</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -11716,22 +11716,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>35.355</v>
+        <v>70.711</v>
       </c>
       <c r="K5" t="n">
-        <v>174</v>
+        <v>262.071</v>
       </c>
       <c r="L5" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="M5" t="n">
-        <v>316.614</v>
+        <v>380.325</v>
       </c>
       <c r="N5" t="n">
-        <v>331.999</v>
+        <v>349.433</v>
       </c>
       <c r="O5" t="n">
-        <v>386.999</v>
+        <v>394.097</v>
       </c>
       <c r="P5" t="n">
         <v>100</v>
@@ -11866,11 +11866,11 @@
         <v>41</v>
       </c>
       <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
         <v>37</v>
       </c>
-      <c r="E3" t="n">
-        <v>35</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -11878,16 +11878,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92</v>
+        <v>122.806</v>
       </c>
       <c r="I3" t="n">
-        <v>124</v>
+        <v>152.454</v>
       </c>
       <c r="J3" t="n">
-        <v>139</v>
+        <v>156.211</v>
       </c>
       <c r="K3" t="n">
-        <v>193.204</v>
+        <v>203.213</v>
       </c>
       <c r="L3" t="n">
         <v>50</v>
@@ -11942,17 +11942,17 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
         <v>24</v>
       </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>11</v>
-      </c>
-      <c r="G5" t="n">
-        <v>9</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -11960,22 +11960,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>64</v>
+        <v>96.38800000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L5" t="n">
-        <v>94.38500000000001</v>
+        <v>99.77</v>
       </c>
       <c r="M5" t="n">
-        <v>148</v>
+        <v>193.051</v>
       </c>
       <c r="N5" t="n">
-        <v>168.44</v>
+        <v>184.881</v>
       </c>
       <c r="O5" t="n">
-        <v>223.717</v>
+        <v>219.497</v>
       </c>
       <c r="P5" t="n">
         <v>110</v>
@@ -12156,11 +12156,11 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" t="n">
         <v>38</v>
       </c>
-      <c r="E10" t="n">
-        <v>40</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -12168,16 +12168,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>73.056</v>
       </c>
       <c r="I10" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J10" t="n">
-        <v>90.38500000000001</v>
+        <v>105.77</v>
       </c>
       <c r="K10" t="n">
-        <v>140.696</v>
+        <v>147.587</v>
       </c>
       <c r="L10" t="n">
         <v>70</v>
@@ -12392,11 +12392,11 @@
         <v>33</v>
       </c>
       <c r="D17" t="n">
+        <v>28</v>
+      </c>
+      <c r="E17" t="n">
         <v>30</v>
       </c>
-      <c r="E17" t="n">
-        <v>28</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -12404,16 +12404,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>51.478</v>
+        <v>102.956</v>
       </c>
       <c r="I17" t="n">
-        <v>74</v>
+        <v>78.68300000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>88</v>
+        <v>88.08</v>
       </c>
       <c r="K17" t="n">
-        <v>153.714</v>
+        <v>146.08</v>
       </c>
       <c r="L17" t="n">
         <v>30</v>

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
@@ -796,25 +796,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="M8" t="n">
-        <v>224.44</v>
+        <v>214</v>
       </c>
       <c r="N8" t="n">
-        <v>260.056</v>
+        <v>242.028</v>
       </c>
       <c r="O8" t="n">
-        <v>302.028</v>
+        <v>277.028</v>
       </c>
       <c r="P8" t="n">
-        <v>337.028</v>
+        <v>312.028</v>
       </c>
       <c r="Q8" t="n">
-        <v>334.193</v>
+        <v>328.111</v>
       </c>
       <c r="R8" t="n">
-        <v>359.744</v>
+        <v>348.927</v>
       </c>
       <c r="S8" t="n">
         <v>401.354</v>
@@ -855,22 +855,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>54.616</v>
+        <v>34</v>
       </c>
       <c r="L9" t="n">
-        <v>68.083</v>
+        <v>56.042</v>
       </c>
       <c r="M9" t="n">
-        <v>110.763</v>
+        <v>88.402</v>
       </c>
       <c r="N9" t="n">
-        <v>112.824</v>
+        <v>105.613</v>
       </c>
       <c r="O9" t="n">
-        <v>277.062</v>
+        <v>269</v>
       </c>
       <c r="P9" t="n">
-        <v>293.142</v>
+        <v>286.071</v>
       </c>
       <c r="Q9" t="n">
         <v>329.612</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>64.03100000000001</v>
+        <v>32.016</v>
       </c>
       <c r="I11" t="n">
-        <v>60.455</v>
+        <v>51.235</v>
       </c>
       <c r="J11" t="n">
-        <v>133.235</v>
+        <v>97.235</v>
       </c>
       <c r="K11" t="n">
         <v>141.206</v>
@@ -1840,13 +1840,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>154.142</v>
+        <v>140</v>
       </c>
       <c r="I4" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J4" t="n">
-        <v>214.944</v>
+        <v>192.472</v>
       </c>
       <c r="K4" t="n">
         <v>223.567</v>
@@ -2069,16 +2069,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>81.81100000000001</v>
+        <v>66</v>
       </c>
       <c r="J9" t="n">
-        <v>108.802</v>
+        <v>92.401</v>
       </c>
       <c r="K9" t="n">
-        <v>152.454</v>
+        <v>139</v>
       </c>
       <c r="L9" t="n">
-        <v>156.211</v>
+        <v>152.606</v>
       </c>
       <c r="M9" t="n">
         <v>203.213</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.956</v>
+        <v>51.478</v>
       </c>
       <c r="I28" t="n">
-        <v>78.68300000000001</v>
+        <v>70.08</v>
       </c>
       <c r="J28" t="n">
-        <v>88.08</v>
+        <v>84.08</v>
       </c>
       <c r="K28" t="n">
         <v>146.08</v>
@@ -2896,7 +2896,7 @@
         <v>1880.468</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -3944,25 +3944,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>406.806</v>
+        <v>376</v>
       </c>
       <c r="M3" t="n">
-        <v>398.806</v>
+        <v>392.403</v>
       </c>
       <c r="N3" t="n">
-        <v>582.602</v>
+        <v>574</v>
       </c>
       <c r="O3" t="n">
-        <v>604.881</v>
+        <v>594.4400000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>717.365</v>
+        <v>660.903</v>
       </c>
       <c r="Q3" t="n">
-        <v>773.3920000000001</v>
+        <v>722.147</v>
       </c>
       <c r="R3" t="n">
-        <v>753.688</v>
+        <v>742.918</v>
       </c>
       <c r="S3" t="n">
         <v>797.962</v>
@@ -4041,28 +4041,28 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>255.388</v>
+        <v>223</v>
       </c>
       <c r="N5" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O5" t="n">
-        <v>376.385</v>
+        <v>371</v>
       </c>
       <c r="P5" t="n">
-        <v>453.111</v>
+        <v>417.056</v>
       </c>
       <c r="Q5" t="n">
-        <v>443.606</v>
+        <v>440</v>
       </c>
       <c r="R5" t="n">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="S5" t="n">
-        <v>619.111</v>
+        <v>583.056</v>
       </c>
       <c r="T5" t="n">
-        <v>640.13</v>
+        <v>616.593</v>
       </c>
       <c r="U5" t="n">
         <v>685.116</v>
@@ -4153,22 +4153,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>70.711</v>
+        <v>35.355</v>
       </c>
       <c r="L7" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
-        <v>260.385</v>
+        <v>255</v>
       </c>
       <c r="N7" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O7" t="n">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="P7" t="n">
-        <v>347.77</v>
+        <v>342.385</v>
       </c>
       <c r="Q7" t="n">
         <v>397.563</v>
@@ -6018,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03100000000001</v>
+        <v>32.016</v>
       </c>
       <c r="I7" t="n">
-        <v>190.811</v>
+        <v>175</v>
       </c>
       <c r="J7" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="K7" t="n">
         <v>256.056</v>
@@ -6691,22 +6691,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>418.472</v>
+        <v>414</v>
       </c>
       <c r="L2" t="n">
-        <v>854.099</v>
+        <v>849</v>
       </c>
       <c r="M2" t="n">
-        <v>898.395</v>
+        <v>878.698</v>
       </c>
       <c r="N2" t="n">
-        <v>900.698</v>
+        <v>894.698</v>
       </c>
       <c r="O2" t="n">
-        <v>931.901</v>
+        <v>918.299</v>
       </c>
       <c r="P2" t="n">
-        <v>975.712</v>
+        <v>952.006</v>
       </c>
       <c r="Q2" t="n">
         <v>983.101</v>
@@ -6750,25 +6750,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M3" t="n">
-        <v>127.416</v>
+        <v>120.708</v>
       </c>
       <c r="N3" t="n">
-        <v>596.062</v>
+        <v>588</v>
       </c>
       <c r="O3" t="n">
-        <v>653.042</v>
+        <v>641</v>
       </c>
       <c r="P3" t="n">
-        <v>831.5599999999999</v>
+        <v>817</v>
       </c>
       <c r="Q3" t="n">
-        <v>845.708</v>
+        <v>839</v>
       </c>
       <c r="R3" t="n">
-        <v>887.471</v>
+        <v>868.235</v>
       </c>
       <c r="S3" t="n">
         <v>911.776</v>
@@ -6821,34 +6821,34 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>426.18</v>
+        <v>415</v>
       </c>
       <c r="P4" t="n">
-        <v>439.162</v>
+        <v>436</v>
       </c>
       <c r="Q4" t="n">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="R4" t="n">
-        <v>630.4160000000001</v>
+        <v>623.708</v>
       </c>
       <c r="S4" t="n">
-        <v>643.9059999999999</v>
+        <v>638.807</v>
       </c>
       <c r="T4" t="n">
-        <v>744.099</v>
+        <v>739</v>
       </c>
       <c r="U4" t="n">
-        <v>781.311</v>
+        <v>765.155</v>
       </c>
       <c r="V4" t="n">
-        <v>806.778</v>
+        <v>790.967</v>
       </c>
       <c r="W4" t="n">
-        <v>826.265</v>
+        <v>813.616</v>
       </c>
       <c r="X4" t="n">
-        <v>870.4349999999999</v>
+        <v>847.025</v>
       </c>
       <c r="Y4" t="n">
         <v>884.828</v>
@@ -7309,22 +7309,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>232.028</v>
+        <v>214</v>
       </c>
       <c r="L11" t="n">
-        <v>245.849</v>
+        <v>236</v>
       </c>
       <c r="M11" t="n">
-        <v>312.974</v>
+        <v>294</v>
       </c>
       <c r="N11" t="n">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="O11" t="n">
-        <v>420.021</v>
+        <v>373.011</v>
       </c>
       <c r="P11" t="n">
-        <v>423.508</v>
+        <v>403.259</v>
       </c>
       <c r="Q11" t="n">
         <v>455.686</v>
@@ -7374,31 +7374,31 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>54.616</v>
+        <v>34</v>
       </c>
       <c r="O12" t="n">
-        <v>103.071</v>
+        <v>96</v>
       </c>
       <c r="P12" t="n">
-        <v>122.125</v>
+        <v>114.062</v>
       </c>
       <c r="Q12" t="n">
-        <v>174.728</v>
+        <v>162</v>
       </c>
       <c r="R12" t="n">
-        <v>194.804</v>
+        <v>183.402</v>
       </c>
       <c r="S12" t="n">
-        <v>207.824</v>
+        <v>200.613</v>
       </c>
       <c r="T12" t="n">
-        <v>253.415</v>
+        <v>232.014</v>
       </c>
       <c r="U12" t="n">
-        <v>327.921</v>
+        <v>284.967</v>
       </c>
       <c r="V12" t="n">
-        <v>332.544</v>
+        <v>313.756</v>
       </c>
       <c r="W12" t="n">
         <v>349.251</v>
@@ -7430,13 +7430,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>204.26</v>
+        <v>183</v>
       </c>
       <c r="I13" t="n">
-        <v>243.63</v>
+        <v>233</v>
       </c>
       <c r="J13" t="n">
-        <v>278.083</v>
+        <v>272</v>
       </c>
       <c r="K13" t="n">
         <v>311.155</v>
@@ -7471,16 +7471,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>53.472</v>
+        <v>31</v>
       </c>
       <c r="J14" t="n">
-        <v>195.248</v>
+        <v>175</v>
       </c>
       <c r="K14" t="n">
-        <v>246.612</v>
+        <v>215.806</v>
       </c>
       <c r="L14" t="n">
-        <v>286.337</v>
+        <v>256.071</v>
       </c>
       <c r="M14" t="n">
         <v>295.904</v>
@@ -8243,22 +8243,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.53</v>
+        <v>14.765</v>
       </c>
       <c r="L7" t="n">
-        <v>398.403</v>
+        <v>392</v>
       </c>
       <c r="M7" t="n">
-        <v>607.902</v>
+        <v>547</v>
       </c>
       <c r="N7" t="n">
-        <v>633.236</v>
+        <v>595.1180000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>648.2</v>
+        <v>626.659</v>
       </c>
       <c r="P7" t="n">
-        <v>711.332</v>
+        <v>673.995</v>
       </c>
       <c r="Q7" t="n">
         <v>735.074</v>
@@ -8305,28 +8305,28 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>277.889</v>
+        <v>260</v>
       </c>
       <c r="N8" t="n">
-        <v>381.125</v>
+        <v>365</v>
       </c>
       <c r="O8" t="n">
-        <v>389.422</v>
+        <v>382.211</v>
       </c>
       <c r="P8" t="n">
-        <v>410.1</v>
+        <v>401.155</v>
       </c>
       <c r="Q8" t="n">
-        <v>494.345</v>
+        <v>471</v>
       </c>
       <c r="R8" t="n">
-        <v>495.403</v>
+        <v>489</v>
       </c>
       <c r="S8" t="n">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="T8" t="n">
-        <v>585.8049999999999</v>
+        <v>549.903</v>
       </c>
       <c r="U8" t="n">
         <v>591.525</v>
@@ -8379,34 +8379,34 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>124.235</v>
+        <v>105</v>
       </c>
       <c r="P9" t="n">
-        <v>199.062</v>
+        <v>191</v>
       </c>
       <c r="Q9" t="n">
-        <v>407.042</v>
+        <v>395</v>
       </c>
       <c r="R9" t="n">
-        <v>421.971</v>
+        <v>413.485</v>
       </c>
       <c r="S9" t="n">
-        <v>440.573</v>
+        <v>432.029</v>
       </c>
       <c r="T9" t="n">
-        <v>472.558</v>
+        <v>457.294</v>
       </c>
       <c r="U9" t="n">
-        <v>474.505</v>
+        <v>470.899</v>
       </c>
       <c r="V9" t="n">
-        <v>594.917</v>
+        <v>537.908</v>
       </c>
       <c r="W9" t="n">
-        <v>570.269</v>
+        <v>559.088</v>
       </c>
       <c r="X9" t="n">
-        <v>595.088</v>
+        <v>582.088</v>
       </c>
       <c r="Y9" t="n">
         <v>627.429</v>
@@ -8562,25 +8562,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.459</v>
+        <v>60</v>
       </c>
       <c r="M12" t="n">
-        <v>100.594</v>
+        <v>85.297</v>
       </c>
       <c r="N12" t="n">
-        <v>105.297</v>
+        <v>100.297</v>
       </c>
       <c r="O12" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P12" t="n">
-        <v>294.469</v>
+        <v>260.734</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.414</v>
+        <v>312.074</v>
       </c>
       <c r="R12" t="n">
-        <v>340.942</v>
+        <v>331.508</v>
       </c>
       <c r="S12" t="n">
         <v>373.897</v>
@@ -8736,19 +8736,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>75.47199999999999</v>
+        <v>37.736</v>
       </c>
       <c r="K15" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L15" t="n">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="M15" t="n">
-        <v>254.619</v>
+        <v>196.31</v>
       </c>
       <c r="N15" t="n">
-        <v>220.31</v>
+        <v>213.31</v>
       </c>
       <c r="O15" t="n">
         <v>273.599</v>
@@ -9085,16 +9085,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>323.616</v>
+        <v>303</v>
       </c>
       <c r="J5" t="n">
-        <v>1271.028</v>
+        <v>1253</v>
       </c>
       <c r="K5" t="n">
-        <v>2343.696</v>
+        <v>2311</v>
       </c>
       <c r="L5" t="n">
-        <v>2488.476</v>
+        <v>2444.738</v>
       </c>
       <c r="M5" t="n">
         <v>2557.541</v>
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -11276,19 +11276,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>96.38800000000001</v>
+        <v>64</v>
       </c>
       <c r="K4" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L4" t="n">
-        <v>99.77</v>
+        <v>94.38500000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>193.051</v>
+        <v>154</v>
       </c>
       <c r="N4" t="n">
-        <v>184.881</v>
+        <v>174.44</v>
       </c>
       <c r="O4" t="n">
         <v>219.497</v>
@@ -11663,22 +11663,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>255.388</v>
+        <v>223</v>
       </c>
       <c r="L4" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M4" t="n">
-        <v>376.385</v>
+        <v>371</v>
       </c>
       <c r="N4" t="n">
-        <v>471.686</v>
+        <v>426.343</v>
       </c>
       <c r="O4" t="n">
-        <v>457.884</v>
+        <v>447.113</v>
       </c>
       <c r="P4" t="n">
-        <v>601.668</v>
+        <v>529.391</v>
       </c>
       <c r="Q4" t="n">
         <v>578.748</v>
@@ -11716,19 +11716,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>70.711</v>
+        <v>35.355</v>
       </c>
       <c r="K5" t="n">
-        <v>262.071</v>
+        <v>255</v>
       </c>
       <c r="L5" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M5" t="n">
-        <v>380.325</v>
+        <v>328.662</v>
       </c>
       <c r="N5" t="n">
-        <v>349.433</v>
+        <v>344.048</v>
       </c>
       <c r="O5" t="n">
         <v>394.097</v>
@@ -11878,13 +11878,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>122.806</v>
+        <v>92</v>
       </c>
       <c r="I3" t="n">
-        <v>152.454</v>
+        <v>139</v>
       </c>
       <c r="J3" t="n">
-        <v>156.211</v>
+        <v>152.606</v>
       </c>
       <c r="K3" t="n">
         <v>203.213</v>
@@ -11960,19 +11960,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>96.38800000000001</v>
+        <v>64</v>
       </c>
       <c r="K5" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L5" t="n">
-        <v>99.77</v>
+        <v>94.38500000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>193.051</v>
+        <v>154</v>
       </c>
       <c r="N5" t="n">
-        <v>184.881</v>
+        <v>174.44</v>
       </c>
       <c r="O5" t="n">
         <v>219.497</v>
@@ -12168,13 +12168,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>73.056</v>
+        <v>37</v>
       </c>
       <c r="I10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J10" t="n">
-        <v>105.77</v>
+        <v>100.385</v>
       </c>
       <c r="K10" t="n">
         <v>147.587</v>
@@ -12404,13 +12404,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>102.956</v>
+        <v>51.478</v>
       </c>
       <c r="I17" t="n">
-        <v>78.68300000000001</v>
+        <v>70.08</v>
       </c>
       <c r="J17" t="n">
-        <v>88.08</v>
+        <v>84.08</v>
       </c>
       <c r="K17" t="n">
         <v>146.08</v>

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
@@ -446,7 +446,7 @@
         <v>1214.125</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -976,7 +976,7 @@
         <v>1487.447</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -1726,7 +1726,7 @@
         <v>2704.913</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -2896,7 +2896,7 @@
         <v>1880.468</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -3826,7 +3826,7 @@
         <v>1627.085</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -4336,7 +4336,7 @@
         <v>1870.694</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
@@ -5386,7 +5386,7 @@
         <v>612.197</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -5766,7 +5766,7 @@
         <v>723.842</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -6086,7 +6086,7 @@
         <v>811.4349999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -6656,7 +6656,7 @@
         <v>1948.331</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
@@ -7586,7 +7586,7 @@
         <v>370.231</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -7886,7 +7886,7 @@
         <v>2458.674</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
@@ -8816,7 +8816,7 @@
         <v>1077.276</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -9326,7 +9326,7 @@
         <v>947.154</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -11156,7 +11156,7 @@
         <v>853.607</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -11516,7 +11516,7 @@
         <v>834.221</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -11796,7 +11796,7 @@
         <v>1628.865</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
+++ b/Neighborhood_Search/output/VRPTW_JuanManuelGomez_Vecindario2.xlsx
@@ -976,7 +976,7 @@
         <v>1487.447</v>
       </c>
       <c r="C1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -1726,7 +1726,7 @@
         <v>2704.913</v>
       </c>
       <c r="C1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -2896,7 +2896,7 @@
         <v>1880.468</v>
       </c>
       <c r="C1" t="n">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
@@ -3826,7 +3826,7 @@
         <v>1627.085</v>
       </c>
       <c r="C1" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -4336,7 +4336,7 @@
         <v>1870.694</v>
       </c>
       <c r="C1" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -5766,7 +5766,7 @@
         <v>723.842</v>
       </c>
       <c r="C1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -6086,7 +6086,7 @@
         <v>811.4349999999999</v>
       </c>
       <c r="C1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -6656,7 +6656,7 @@
         <v>1948.331</v>
       </c>
       <c r="C1" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -7586,7 +7586,7 @@
         <v>370.231</v>
       </c>
       <c r="C1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -7886,7 +7886,7 @@
         <v>2458.674</v>
       </c>
       <c r="C1" t="n">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -8816,7 +8816,7 @@
         <v>1077.276</v>
       </c>
       <c r="C1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -9326,7 +9326,7 @@
         <v>947.154</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -9786,7 +9786,7 @@
         <v>2623.245</v>
       </c>
       <c r="C1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -11516,7 +11516,7 @@
         <v>834.221</v>
       </c>
       <c r="C1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -11796,7 +11796,7 @@
         <v>1628.865</v>
       </c>
       <c r="C1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
